--- a/biology/Botanique/Jardin_de_rocaille_de_la_maison_Noble/Jardin_de_rocaille_de_la_maison_Noble.xlsx
+++ b/biology/Botanique/Jardin_de_rocaille_de_la_maison_Noble/Jardin_de_rocaille_de_la_maison_Noble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin de rocaille de la maison Noble est un jardin situé dans la ville de Toulon, dans le département du Var, en région Provence-Alpes-Côte d'Azur.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Noble, un entrepreneur, confie en 1898, l'aménagement d'un décor de rocaille ainsi que la construction d'un belvédère dans le jardin de sa résidence à Louis Bortiga[1].
-Le jardin de rocaille en totalité comprenant : le mur en façade sur la rue Beaussier, la grotte d'entrée, l'escalier d'accès à la terrasse, la terrasse avec son mobilier, délimitée au nord par les bancs en ciment, le belvédère sont inscrits au titre des monuments historiques par arrêté du 29 octobre 2014[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Noble, un entrepreneur, confie en 1898, l'aménagement d'un décor de rocaille ainsi que la construction d'un belvédère dans le jardin de sa résidence à Louis Bortiga.
+Le jardin de rocaille en totalité comprenant : le mur en façade sur la rue Beaussier, la grotte d'entrée, l'escalier d'accès à la terrasse, la terrasse avec son mobilier, délimitée au nord par les bancs en ciment, le belvédère sont inscrits au titre des monuments historiques par arrêté du 29 octobre 2014.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le belvédère en forme de tour ruinée, est un notable exemplaire d’architecture fissurée. Sur le toit-terrasse se trouve trois personnages interprétant des petits métiers dans la tradition provençale accueillent les visiteurs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le belvédère en forme de tour ruinée, est un notable exemplaire d’architecture fissurée. Sur le toit-terrasse se trouve trois personnages interprétant des petits métiers dans la tradition provençale accueillent les visiteurs.
 </t>
         </is>
       </c>
